--- a/data/trans_orig/P1418-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12898</v>
+        <v>13070</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31153</v>
+        <v>31061</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04322786436261455</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02722291349317017</v>
+        <v>0.02758719786978173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06575493773752913</v>
+        <v>0.06555952082955067</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -765,19 +765,19 @@
         <v>24469</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15886</v>
+        <v>16499</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35297</v>
+        <v>36305</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07978563436471767</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05180129593272657</v>
+        <v>0.0537989472165158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1150951943688788</v>
+        <v>0.1183812612092486</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -786,19 +786,19 @@
         <v>44949</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33775</v>
+        <v>34013</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60204</v>
+        <v>59208</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05759323428390874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04327583282876993</v>
+        <v>0.04358079401993398</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07713980668734817</v>
+        <v>0.07586347751675271</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>453296</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442623</v>
+        <v>442715</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>460878</v>
+        <v>460706</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9567721356373855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9342450622624708</v>
+        <v>0.9344404791704493</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9727770865068298</v>
+        <v>0.9724128021302182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>275</v>
@@ -836,19 +836,19 @@
         <v>282211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271383</v>
+        <v>270375</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290794</v>
+        <v>290181</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9202143656352824</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8849048056311213</v>
+        <v>0.8816187387907514</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9481987040672734</v>
+        <v>0.9462010527834842</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>709</v>
@@ -857,19 +857,19 @@
         <v>735508</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>720253</v>
+        <v>721249</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>746682</v>
+        <v>746444</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9424067657160913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9228601933126518</v>
+        <v>0.9241365224832472</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.95672416717123</v>
+        <v>0.9564192059800659</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>17451</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10634</v>
+        <v>10343</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25990</v>
+        <v>27182</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0475592310091265</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02898165939000179</v>
+        <v>0.02818739741712315</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07082903897214467</v>
+        <v>0.07407824401631463</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -982,19 +982,19 @@
         <v>21140</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12979</v>
+        <v>13079</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31926</v>
+        <v>32067</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05684779349501357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03490282582087286</v>
+        <v>0.03517117704967343</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08585463771387135</v>
+        <v>0.08623229247637407</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -1003,19 +1003,19 @@
         <v>38591</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27171</v>
+        <v>28371</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52296</v>
+        <v>53864</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05223450806629409</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03677733331680091</v>
+        <v>0.03840189760656574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0707852775716428</v>
+        <v>0.07290761533748541</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>349483</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>340944</v>
+        <v>339752</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>356300</v>
+        <v>356591</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9524407689908735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9291709610278557</v>
+        <v>0.9259217559836852</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9710183406099986</v>
+        <v>0.9718126025828766</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>343</v>
@@ -1053,19 +1053,19 @@
         <v>350725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>339939</v>
+        <v>339798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358886</v>
+        <v>358786</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9431522065049864</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9141453622861285</v>
+        <v>0.9137677075236257</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9650971741791271</v>
+        <v>0.9648288229503257</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>675</v>
@@ -1074,19 +1074,19 @@
         <v>700208</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>686503</v>
+        <v>684935</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>711628</v>
+        <v>710428</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.947765491933706</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9292147224283573</v>
+        <v>0.9270923846625156</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9632226666831996</v>
+        <v>0.9615981023934342</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>31057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21925</v>
+        <v>21055</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42738</v>
+        <v>43702</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0572589916826214</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04042247716161665</v>
+        <v>0.03881945035391086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07879591776133947</v>
+        <v>0.08057336360132167</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>17128</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9585</v>
+        <v>10013</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26397</v>
+        <v>26679</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1020825413212527</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05712992064824818</v>
+        <v>0.05967600324815349</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1573280561967301</v>
+        <v>0.1590123726500287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1220,19 +1220,19 @@
         <v>48184</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36163</v>
+        <v>36808</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63171</v>
+        <v>65150</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06784880828134172</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05092088060225164</v>
+        <v>0.0518296945483275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08895129995179273</v>
+        <v>0.09173879558028529</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>511332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>499651</v>
+        <v>498687</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520464</v>
+        <v>521334</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9427410083173786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9212040822386603</v>
+        <v>0.9194266363986788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9595775228383832</v>
+        <v>0.9611805496460892</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -1270,19 +1270,19 @@
         <v>150654</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141385</v>
+        <v>141103</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158197</v>
+        <v>157769</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8979174586787473</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8426719438032699</v>
+        <v>0.8409876273499712</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9428700793517518</v>
+        <v>0.9403239967518464</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>650</v>
@@ -1291,19 +1291,19 @@
         <v>661987</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>647000</v>
+        <v>645021</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>674008</v>
+        <v>673363</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9321511917186582</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9110487000482073</v>
+        <v>0.9082612044197146</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9490791193977485</v>
+        <v>0.9481703054516725</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>82656</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66676</v>
+        <v>66923</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101603</v>
+        <v>100370</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0667479934187608</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05384304002862005</v>
+        <v>0.05404267088534941</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08204797357473659</v>
+        <v>0.08105273559090492</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -1416,19 +1416,19 @@
         <v>56806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42793</v>
+        <v>43246</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71322</v>
+        <v>71140</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07952841681347053</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05991044548354757</v>
+        <v>0.06054475257416223</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09985086015853036</v>
+        <v>0.09959565067320665</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -1437,19 +1437,19 @@
         <v>139462</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119247</v>
+        <v>117336</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>163093</v>
+        <v>160408</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07142318378033082</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06107006422043871</v>
+        <v>0.06009144569852324</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08352543435310332</v>
+        <v>0.08215028916854138</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1155678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1136731</v>
+        <v>1137964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1171658</v>
+        <v>1171411</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9332520065812392</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9179520264252632</v>
+        <v>0.9189472644090951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9461569599713789</v>
+        <v>0.9459573291146509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>637</v>
@@ -1487,19 +1487,19 @@
         <v>657479</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>642963</v>
+        <v>643145</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>671492</v>
+        <v>671039</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9204715831865294</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9001491398414696</v>
+        <v>0.9004043493267934</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9400895545164523</v>
+        <v>0.9394552474258377</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1775</v>
@@ -1508,19 +1508,19 @@
         <v>1813158</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1789527</v>
+        <v>1792212</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1833373</v>
+        <v>1835284</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9285768162196691</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9164745656468967</v>
+        <v>0.9178497108314586</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9389299357795613</v>
+        <v>0.9399085543014768</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>24684</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16498</v>
+        <v>15880</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35850</v>
+        <v>36014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07041542172865156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04706282460513473</v>
+        <v>0.04529952758455829</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1022669312332976</v>
+        <v>0.1027347408886264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -1633,19 +1633,19 @@
         <v>64590</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51176</v>
+        <v>49647</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82047</v>
+        <v>82154</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1135641388609935</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08997982450133409</v>
+        <v>0.08729109394145998</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1442582828773792</v>
+        <v>0.1444465269335934</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>86</v>
@@ -1654,19 +1654,19 @@
         <v>89274</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72331</v>
+        <v>72342</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>108855</v>
+        <v>108107</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09711043150125921</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07867961906344999</v>
+        <v>0.0786919048665272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1184098581795429</v>
+        <v>0.1175957536406382</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>325871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>314705</v>
+        <v>314541</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>334057</v>
+        <v>334675</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9295845782713484</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8977330687667026</v>
+        <v>0.8972652591113737</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9529371753948653</v>
+        <v>0.9547004724154418</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>478</v>
@@ -1704,19 +1704,19 @@
         <v>504162</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>486705</v>
+        <v>486598</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>517576</v>
+        <v>519105</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8864358611390065</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8557417171226208</v>
+        <v>0.8555534730664066</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.910020175498666</v>
+        <v>0.91270890605854</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>793</v>
@@ -1725,19 +1725,19 @@
         <v>830033</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>810452</v>
+        <v>811200</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>846976</v>
+        <v>846965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9028895684987408</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8815901418204571</v>
+        <v>0.8824042463593621</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9213203809365501</v>
+        <v>0.921308095133473</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>2754</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7842</v>
+        <v>7307</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009234060520141701</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002756654906519327</v>
+        <v>0.002740304704174946</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02629677534917512</v>
+        <v>0.02450362708251646</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>154</v>
@@ -1850,19 +1850,19 @@
         <v>159020</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>136606</v>
+        <v>136355</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>184781</v>
+        <v>183622</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1273426162050514</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.109393036152572</v>
+        <v>0.1091923941838369</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1479713621738481</v>
+        <v>0.1470435016837182</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>157</v>
@@ -1871,19 +1871,19 @@
         <v>161774</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>140364</v>
+        <v>138539</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187370</v>
+        <v>187386</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1045753645954082</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09073544261010509</v>
+        <v>0.08955550913747692</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1211214111155434</v>
+        <v>0.1211316047212368</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>295447</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>290359</v>
+        <v>290894</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>297379</v>
+        <v>297384</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9907659394798582</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9737032246508251</v>
+        <v>0.9754963729174841</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9972433450934807</v>
+        <v>0.9972596952958251</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1084</v>
@@ -1921,19 +1921,19 @@
         <v>1089740</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1063979</v>
+        <v>1065138</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1112154</v>
+        <v>1112405</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8726573837949486</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.852028637826152</v>
+        <v>0.8529564983162817</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.890606963847428</v>
+        <v>0.890807605816163</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1387</v>
@@ -1942,19 +1942,19 @@
         <v>1385186</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1359590</v>
+        <v>1359574</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1406596</v>
+        <v>1408421</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8954246354045918</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8788785888844566</v>
+        <v>0.8788683952787633</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9092645573898949</v>
+        <v>0.9104444908625231</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>179083</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>155696</v>
+        <v>155499</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>208487</v>
+        <v>205571</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05476212212204129</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0476107406512051</v>
+        <v>0.04755038040397303</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06375389069760287</v>
+        <v>0.06286206843168221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>331</v>
@@ -2067,19 +2067,19 @@
         <v>343152</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>309277</v>
+        <v>312038</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>382109</v>
+        <v>381856</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1015806730746676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09155280222508745</v>
+        <v>0.09237009630328803</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1131128959685174</v>
+        <v>0.113037840232502</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>514</v>
@@ -2088,19 +2088,19 @@
         <v>522235</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>479102</v>
+        <v>476711</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>568769</v>
+        <v>566143</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07855144241029403</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07206366878092683</v>
+        <v>0.07170403330143735</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08555082770107739</v>
+        <v>0.08515586445611117</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3091107</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3061703</v>
+        <v>3064619</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3114494</v>
+        <v>3114691</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9452378778779587</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9362461093023972</v>
+        <v>0.9371379315683177</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9523892593487949</v>
+        <v>0.952449619596027</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2965</v>
@@ -2138,19 +2138,19 @@
         <v>3034972</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2996015</v>
+        <v>2996268</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3068847</v>
+        <v>3066086</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8984193269253323</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8868871040314826</v>
+        <v>0.8869621597674979</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9084471977749125</v>
+        <v>0.9076299036967119</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5989</v>
@@ -2159,19 +2159,19 @@
         <v>6126079</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6079545</v>
+        <v>6082171</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6169212</v>
+        <v>6171603</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.921448557589706</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9144491722989228</v>
+        <v>0.9148441355438889</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9279363312190732</v>
+        <v>0.9282959666985628</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>4120</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9359</v>
+        <v>10318</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009423010946795441</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002349988975409736</v>
+        <v>0.002352848996528445</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02140532572815854</v>
+        <v>0.02360065635972974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2526,19 +2526,19 @@
         <v>7248</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3070</v>
+        <v>2972</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13832</v>
+        <v>14096</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02304805910016477</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009764339096306805</v>
+        <v>0.009450732697244656</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04398819562183858</v>
+        <v>0.04482751713843545</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2547,19 +2547,19 @@
         <v>11367</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5799</v>
+        <v>6210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19750</v>
+        <v>20089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01512296260619027</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007714918020316494</v>
+        <v>0.008261497806497145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02627446029529121</v>
+        <v>0.02672599223167622</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>433091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>427852</v>
+        <v>426893</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436184</v>
+        <v>436182</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9905769890532046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9785946742718414</v>
+        <v>0.9763993436402703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9976500110245903</v>
+        <v>0.9976471510034716</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -2597,19 +2597,19 @@
         <v>307206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300622</v>
+        <v>300358</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311384</v>
+        <v>311482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9769519408998353</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9560118043781616</v>
+        <v>0.9551724828615645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9902356609036932</v>
+        <v>0.9905492673027554</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>676</v>
@@ -2618,19 +2618,19 @@
         <v>740298</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>731915</v>
+        <v>731576</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745866</v>
+        <v>745455</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9848770373938097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9737255397047087</v>
+        <v>0.9732740077683238</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9922850819796835</v>
+        <v>0.9917385021935029</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>7312</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3035</v>
+        <v>2962</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15915</v>
+        <v>17130</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01745985705101334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007245937820885964</v>
+        <v>0.007072288922503727</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03800234101462176</v>
+        <v>0.04090326029048488</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -2743,19 +2743,19 @@
         <v>16455</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9690</v>
+        <v>8462</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27001</v>
+        <v>25831</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04868051639331582</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02866860089793748</v>
+        <v>0.02503433019368959</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07988182633945333</v>
+        <v>0.07642020145471928</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -2764,19 +2764,19 @@
         <v>23767</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15331</v>
+        <v>14476</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35486</v>
+        <v>35189</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03140385417624521</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02025713167523883</v>
+        <v>0.01912721263463251</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0468896257148554</v>
+        <v>0.04649629229754373</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>411485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402882</v>
+        <v>401667</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>415762</v>
+        <v>415835</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9825401429489866</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9619976589853781</v>
+        <v>0.9590967397095146</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.992754062179114</v>
+        <v>0.9929277110774962</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>290</v>
@@ -2814,19 +2814,19 @@
         <v>321556</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>311010</v>
+        <v>312180</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>328321</v>
+        <v>329549</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9513194836066842</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.920118173660547</v>
+        <v>0.9235797985452808</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9713313991020626</v>
+        <v>0.9749656698063104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>659</v>
@@ -2835,19 +2835,19 @@
         <v>733041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>721322</v>
+        <v>721619</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>741477</v>
+        <v>742332</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9685961458237548</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9531103742851447</v>
+        <v>0.9535037077024563</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9797428683247612</v>
+        <v>0.9808727873653669</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>20421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12765</v>
+        <v>12486</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31184</v>
+        <v>31201</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03244452882621057</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02028121583302319</v>
+        <v>0.01983792923491225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04954500868981191</v>
+        <v>0.04957153936337502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -2960,19 +2960,19 @@
         <v>29210</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19835</v>
+        <v>19738</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40694</v>
+        <v>41158</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1122905267977737</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07625133335462302</v>
+        <v>0.07587817860360596</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1564383240257725</v>
+        <v>0.1582214549831397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -2981,19 +2981,19 @@
         <v>49631</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36809</v>
+        <v>37683</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65274</v>
+        <v>65516</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05579389446655368</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04137946629745053</v>
+        <v>0.04236176786716474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07337910879828335</v>
+        <v>0.07365119265671663</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>608994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>598231</v>
+        <v>598214</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>616650</v>
+        <v>616929</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9675554711737895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9504549913101882</v>
+        <v>0.950428460636625</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9797187841669769</v>
+        <v>0.9801620707650879</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>218</v>
@@ -3031,19 +3031,19 @@
         <v>230919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>219435</v>
+        <v>218971</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240294</v>
+        <v>240391</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8877094732022263</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8435616759742274</v>
+        <v>0.8417785450168601</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9237486666453769</v>
+        <v>0.924121821396394</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>790</v>
@@ -3052,19 +3052,19 @@
         <v>839913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>824270</v>
+        <v>824028</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>852735</v>
+        <v>851861</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9442061055334463</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9266208912017164</v>
+        <v>0.926348807343284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9586205337025495</v>
+        <v>0.9576382321328354</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>54049</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40677</v>
+        <v>39847</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71877</v>
+        <v>70338</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04663342866585202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03509598077028015</v>
+        <v>0.03437987918757692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06201614642514974</v>
+        <v>0.06068819163276178</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3177,19 +3177,19 @@
         <v>50682</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36127</v>
+        <v>38422</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64995</v>
+        <v>67878</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06627487661628088</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04724184543742781</v>
+        <v>0.05024333461013413</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08499113729121625</v>
+        <v>0.08876198371053458</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -3198,19 +3198,19 @@
         <v>104730</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84927</v>
+        <v>85577</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127799</v>
+        <v>128487</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05444130185625672</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04414718482945099</v>
+        <v>0.04448467197622411</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06643299233271339</v>
+        <v>0.0667904695001609</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1104960</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1087132</v>
+        <v>1088671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1118332</v>
+        <v>1119162</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9533665713341479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9379838535748494</v>
+        <v>0.9393118083672384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9649040192297198</v>
+        <v>0.9656201208124234</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>663</v>
@@ -3248,19 +3248,19 @@
         <v>714040</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>699727</v>
+        <v>696844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>728595</v>
+        <v>726300</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9337251233837192</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9150088627087841</v>
+        <v>0.9112380162894655</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9527581545625726</v>
+        <v>0.9497566653898663</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1697</v>
@@ -3269,19 +3269,19 @@
         <v>1819001</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1795932</v>
+        <v>1795244</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1838804</v>
+        <v>1838154</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9455586981437433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9335670076672866</v>
+        <v>0.9332095304998391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.955852815170549</v>
+        <v>0.9555153280237758</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>18125</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10328</v>
+        <v>10703</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27543</v>
+        <v>27848</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03549807809195888</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02022825377095605</v>
+        <v>0.02096209166100915</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05394348528051656</v>
+        <v>0.05453977617736735</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -3394,19 +3394,19 @@
         <v>100677</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>82243</v>
+        <v>82120</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>121391</v>
+        <v>119786</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.132426280087821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1081794930841968</v>
+        <v>0.1080180587747949</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1596730885346034</v>
+        <v>0.1575627480810416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -3415,19 +3415,19 @@
         <v>118802</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98975</v>
+        <v>99744</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142059</v>
+        <v>142529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09348268462890545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07788142800578952</v>
+        <v>0.07848635604147097</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1117829343708972</v>
+        <v>0.1121532934225821</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>492471</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>483053</v>
+        <v>482748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>500268</v>
+        <v>499893</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9645019219080411</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9460565147194834</v>
+        <v>0.9454602238226327</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9797717462290439</v>
+        <v>0.979037908338991</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>609</v>
@@ -3465,19 +3465,19 @@
         <v>659569</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>638855</v>
+        <v>640460</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>678003</v>
+        <v>678126</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.867573719912179</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8403269114653967</v>
+        <v>0.842437251918958</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8918205069158033</v>
+        <v>0.8919819412252049</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1079</v>
@@ -3486,19 +3486,19 @@
         <v>1152041</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1128784</v>
+        <v>1128314</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1171868</v>
+        <v>1171099</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9065173153710946</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8882170656291029</v>
+        <v>0.8878467065774187</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.92211857199421</v>
+        <v>0.9215136439585291</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>2865</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7756</v>
+        <v>7828</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01073359590359534</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003396533693952206</v>
+        <v>0.003441997460907456</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02905968511754727</v>
+        <v>0.02932953183050296</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>130</v>
@@ -3611,19 +3611,19 @@
         <v>141562</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>119125</v>
+        <v>120939</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>165890</v>
+        <v>167347</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1277281992815519</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1074840090281676</v>
+        <v>0.1091206019915386</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1496788684599456</v>
+        <v>0.1509933001866763</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -3632,19 +3632,19 @@
         <v>144426</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>120899</v>
+        <v>120633</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>166591</v>
+        <v>168060</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1050231037734671</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08791469475696792</v>
+        <v>0.08772100983082234</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1211404962771537</v>
+        <v>0.1222085148166679</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>264017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259126</v>
+        <v>259054</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265976</v>
+        <v>265963</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9892664040964047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9709403148824527</v>
+        <v>0.9706704681694964</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9966034663060478</v>
+        <v>0.9965580025390924</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>913</v>
@@ -3682,19 +3682,19 @@
         <v>966743</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>942415</v>
+        <v>940958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>989180</v>
+        <v>987366</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8722718007184481</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8503211315400544</v>
+        <v>0.8490066998133241</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8925159909718323</v>
+        <v>0.8908793980084616</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1175</v>
@@ -3703,19 +3703,19 @@
         <v>1230761</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1208596</v>
+        <v>1207127</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1254288</v>
+        <v>1254554</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8949768962265329</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8788595037228462</v>
+        <v>0.8777914851833323</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9120853052430316</v>
+        <v>0.912278990169178</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>106891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>87837</v>
+        <v>89158</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129858</v>
+        <v>132142</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03123735328134538</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0256691010989679</v>
+        <v>0.0260551834504635</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03794897669720596</v>
+        <v>0.03861636274806003</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>318</v>
@@ -3828,19 +3828,19 @@
         <v>345832</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>311526</v>
+        <v>307357</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>382265</v>
+        <v>380903</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09753110525989854</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08785596994717701</v>
+        <v>0.08668035759365217</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1078056852336268</v>
+        <v>0.1074216695627569</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>416</v>
@@ -3849,19 +3849,19 @@
         <v>452724</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>410296</v>
+        <v>408803</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>498004</v>
+        <v>496040</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06497391880194067</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05888482878898534</v>
+        <v>0.05867055589412969</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07147237626312171</v>
+        <v>0.07119048569049495</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3315019</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3292052</v>
+        <v>3289768</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3334073</v>
+        <v>3332752</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9687626467186546</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9620510233027938</v>
+        <v>0.9613836372519401</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.974330898901032</v>
+        <v>0.9739448165495369</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2969</v>
@@ -3899,19 +3899,19 @@
         <v>3200036</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3163603</v>
+        <v>3164965</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3234342</v>
+        <v>3238511</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9024688947401015</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8921943147663735</v>
+        <v>0.8925783304372429</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9121440300528232</v>
+        <v>0.9133196424063474</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6076</v>
@@ -3920,19 +3920,19 @@
         <v>6515054</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6469774</v>
+        <v>6471738</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6557482</v>
+        <v>6558975</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9350260811980593</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.928527623736878</v>
+        <v>0.9288095143095051</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9411151712110142</v>
+        <v>0.9413294441058703</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>7795</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3270</v>
+        <v>3243</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15301</v>
+        <v>15395</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01816601969807304</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007619828163778136</v>
+        <v>0.007557945863923635</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03565987403600041</v>
+        <v>0.03587828186963336</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4287,19 +4287,19 @@
         <v>13850</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6892</v>
+        <v>7088</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22209</v>
+        <v>23273</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03990779522907598</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01985720557461467</v>
+        <v>0.02042331011335466</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06399319098270399</v>
+        <v>0.06705779992710055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4308,19 +4308,19 @@
         <v>21645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13460</v>
+        <v>13563</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33836</v>
+        <v>33036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02788787738988581</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01734242477516956</v>
+        <v>0.01747481531823753</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04359526423869366</v>
+        <v>0.04256368672605328</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>421297</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>413791</v>
+        <v>413697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425822</v>
+        <v>425849</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9818339803019269</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9643401259639997</v>
+        <v>0.9641217181303666</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.992380171836222</v>
+        <v>0.992442054136076</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -4358,19 +4358,19 @@
         <v>333205</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>324846</v>
+        <v>323782</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>340163</v>
+        <v>339967</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9600922047709241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9360068090172957</v>
+        <v>0.9329422000728994</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9801427944253853</v>
+        <v>0.9795766898866453</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>709</v>
@@ -4379,19 +4379,19 @@
         <v>754502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>742311</v>
+        <v>743111</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762687</v>
+        <v>762584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9721121226101141</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9564047357613066</v>
+        <v>0.9574363132739466</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9826575752248305</v>
+        <v>0.9825251846817625</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>2675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7450</v>
+        <v>7238</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007089902421186393</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002026858315881649</v>
+        <v>0.002013814179833298</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0197482568219879</v>
+        <v>0.01918782634330532</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4504,19 +4504,19 @@
         <v>8101</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3295</v>
+        <v>3612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15846</v>
+        <v>16614</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0217596391424175</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008850342477880996</v>
+        <v>0.009701986653379421</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0425667391100084</v>
+        <v>0.04462924077893489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -4525,19 +4525,19 @@
         <v>10775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5321</v>
+        <v>5624</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18497</v>
+        <v>19355</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01437629190329797</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007099002015071277</v>
+        <v>0.00750415044814977</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02467889303256393</v>
+        <v>0.02582414648676783</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>374552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>369777</v>
+        <v>369989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376462</v>
+        <v>376467</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9929100975788137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9802517431780121</v>
+        <v>0.9808121736566948</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979731416841183</v>
+        <v>0.9979861858201666</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>345</v>
@@ -4575,19 +4575,19 @@
         <v>364172</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356427</v>
+        <v>355659</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368978</v>
+        <v>368661</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9782403608575825</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9574332608899916</v>
+        <v>0.9553707592210652</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.991149657522119</v>
+        <v>0.9902980133466206</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>696</v>
@@ -4596,19 +4596,19 @@
         <v>738725</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>731003</v>
+        <v>730145</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>744179</v>
+        <v>743876</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9856237080967021</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.975321106967436</v>
+        <v>0.974175853513232</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9929009979849288</v>
+        <v>0.9924958495518502</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>9878</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4879</v>
+        <v>4753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17808</v>
+        <v>18182</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01892561677459971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009347884326261477</v>
+        <v>0.009106725072166134</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03412063957269366</v>
+        <v>0.03483661136552523</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -4721,19 +4721,19 @@
         <v>14040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7973</v>
+        <v>7742</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23794</v>
+        <v>24118</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08451287328215815</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04799733070009775</v>
+        <v>0.04660536299098794</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1432328578122378</v>
+        <v>0.1451836465576234</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -4742,19 +4742,19 @@
         <v>23917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16039</v>
+        <v>15120</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34664</v>
+        <v>35038</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03476131596736302</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02331177052015475</v>
+        <v>0.02197601142024011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05038169850732037</v>
+        <v>0.05092429779697283</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>512036</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>504106</v>
+        <v>503732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>517035</v>
+        <v>517161</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9810743832254003</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.965879360427307</v>
+        <v>0.9651633886344747</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9906521156737386</v>
+        <v>0.9908932749278339</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>141</v>
@@ -4792,19 +4792,19 @@
         <v>152083</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142329</v>
+        <v>142005</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158150</v>
+        <v>158381</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9154871267178418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8567671421877622</v>
+        <v>0.8548163534423766</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9520026692999023</v>
+        <v>0.9533946370090122</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>633</v>
@@ -4813,19 +4813,19 @@
         <v>664119</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>653372</v>
+        <v>652998</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>671997</v>
+        <v>672916</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.965238684032637</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9496183014926799</v>
+        <v>0.9490757022030272</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9766882294798452</v>
+        <v>0.9780239885797598</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>31501</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21573</v>
+        <v>21716</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44923</v>
+        <v>44347</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0274010706703236</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01876516016285061</v>
+        <v>0.01888956936990827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03907548837450709</v>
+        <v>0.03857473891915779</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -4938,19 +4938,19 @@
         <v>38598</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26019</v>
+        <v>27634</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51424</v>
+        <v>52854</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04673615199240543</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03150423226224935</v>
+        <v>0.03345992096224522</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06226650483555899</v>
+        <v>0.06399773912398503</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -4959,19 +4959,19 @@
         <v>70100</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54327</v>
+        <v>54618</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89615</v>
+        <v>88922</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03548422018512192</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02749993557036742</v>
+        <v>0.02764730971939547</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04536263253341196</v>
+        <v>0.04501218859672829</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1118137</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1104715</v>
+        <v>1105291</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1128065</v>
+        <v>1127922</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9725989293296764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9609245116254927</v>
+        <v>0.9614252610808419</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9812348398371493</v>
+        <v>0.9811104306300915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>762</v>
@@ -5009,19 +5009,19 @@
         <v>787278</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>774452</v>
+        <v>773022</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>799857</v>
+        <v>798242</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9532638480075946</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.937733495164441</v>
+        <v>0.9360022608760149</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9684957677377507</v>
+        <v>0.9665400790377547</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1835</v>
@@ -5030,19 +5030,19 @@
         <v>1905414</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1885899</v>
+        <v>1886592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1921187</v>
+        <v>1920896</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9645157798148781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.954637367466588</v>
+        <v>0.9549878114032717</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9725000644296327</v>
+        <v>0.9723526902806046</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>29864</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20643</v>
+        <v>20374</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42197</v>
+        <v>41787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04811244331213017</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0332571681376639</v>
+        <v>0.03282457590951847</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0679818906251209</v>
+        <v>0.06732186669622774</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -5155,19 +5155,19 @@
         <v>71692</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56118</v>
+        <v>54384</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89982</v>
+        <v>89654</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09711110345921613</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07601507470300675</v>
+        <v>0.07366695000802451</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1218867262633923</v>
+        <v>0.1214420753889317</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -5176,19 +5176,19 @@
         <v>101555</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83688</v>
+        <v>82689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123299</v>
+        <v>120800</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07473076844239968</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06158257319342503</v>
+        <v>0.06084799886534143</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09073125429132076</v>
+        <v>0.0888924322542929</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>590842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>578509</v>
+        <v>578919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>600063</v>
+        <v>600332</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9518875566878698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9320181093748792</v>
+        <v>0.9326781333037722</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9667428318623361</v>
+        <v>0.9671754240904815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>635</v>
@@ -5226,19 +5226,19 @@
         <v>666552</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>648262</v>
+        <v>648590</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>682126</v>
+        <v>683860</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9028888965407839</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8781132737366079</v>
+        <v>0.8785579246110681</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9239849252969933</v>
+        <v>0.9263330499919754</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1200</v>
@@ -5247,19 +5247,19 @@
         <v>1257395</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1235651</v>
+        <v>1238150</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1275262</v>
+        <v>1276261</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9252692315576003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9092687457086795</v>
+        <v>0.9111075677457072</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9384174268065751</v>
+        <v>0.9391520011346594</v>
       </c>
     </row>
     <row r="18">
@@ -5364,19 +5364,19 @@
         <v>105760</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86782</v>
+        <v>84868</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127993</v>
+        <v>127804</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0977424237743842</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08020372382612521</v>
+        <v>0.07843407980608003</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1182903169956043</v>
+        <v>0.118115756043842</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -5385,19 +5385,19 @@
         <v>105760</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85487</v>
+        <v>86227</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>127120</v>
+        <v>130201</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07724368169440216</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06243675658373082</v>
+        <v>0.06297754788488101</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09284441433696736</v>
+        <v>0.09509489955379791</v>
       </c>
     </row>
     <row r="20">
@@ -5427,19 +5427,19 @@
         <v>976265</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>954032</v>
+        <v>954221</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>995243</v>
+        <v>997157</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9022575762256158</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8817096830043958</v>
+        <v>0.8818842439561583</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9197962761738749</v>
+        <v>0.9215659201939201</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1175</v>
@@ -5448,19 +5448,19 @@
         <v>1263410</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1242050</v>
+        <v>1238969</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1283683</v>
+        <v>1282943</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9227563183055979</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9071555856630327</v>
+        <v>0.9049051004462021</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9375632434162692</v>
+        <v>0.9370224521151189</v>
       </c>
     </row>
     <row r="21">
@@ -5552,19 +5552,19 @@
         <v>81712</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64057</v>
+        <v>63140</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100296</v>
+        <v>101227</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02413427080097824</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01891968311940731</v>
+        <v>0.01864902608687391</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02962327576724842</v>
+        <v>0.02989812926755821</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>220</v>
@@ -5573,19 +5573,19 @@
         <v>252040</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>222904</v>
+        <v>222762</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>287334</v>
+        <v>287301</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07136715035172352</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06311701292255821</v>
+        <v>0.06307676343347282</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08136102563594937</v>
+        <v>0.08135147053555847</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>302</v>
@@ -5594,19 +5594,19 @@
         <v>333752</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>296836</v>
+        <v>297336</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>375643</v>
+        <v>373879</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04824873848329353</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04291205063288497</v>
+        <v>0.04298432215523629</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05430478409533197</v>
+        <v>0.05404972714488999</v>
       </c>
     </row>
     <row r="23">
@@ -5623,19 +5623,19 @@
         <v>3304010</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3285426</v>
+        <v>3284495</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3321665</v>
+        <v>3322582</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9758657291990217</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9703767242327516</v>
+        <v>0.9701018707324417</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9810803168805926</v>
+        <v>0.981350973913126</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3106</v>
@@ -5644,19 +5644,19 @@
         <v>3279556</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3244262</v>
+        <v>3244295</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3308692</v>
+        <v>3308834</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9286328496482765</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9186389743640504</v>
+        <v>0.9186485294644418</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9368829870774418</v>
+        <v>0.9369232365665273</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6248</v>
@@ -5665,19 +5665,19 @@
         <v>6583566</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6541675</v>
+        <v>6543439</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6620482</v>
+        <v>6619982</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9517512615167064</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9456952159046681</v>
+        <v>0.94595027285511</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9570879493671153</v>
+        <v>0.9570156778447638</v>
       </c>
     </row>
     <row r="24">
@@ -6011,19 +6011,19 @@
         <v>15551</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9021</v>
+        <v>9678</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23924</v>
+        <v>24773</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02824246501488832</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01638307543678394</v>
+        <v>0.01757742989318259</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04344855752920335</v>
+        <v>0.04499202094527938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -6032,19 +6032,19 @@
         <v>25574</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18072</v>
+        <v>18283</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35332</v>
+        <v>35491</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05251478708940029</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03711071349844107</v>
+        <v>0.0375436720756524</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07255293341917839</v>
+        <v>0.07287954025931268</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -6053,19 +6053,19 @@
         <v>41125</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32202</v>
+        <v>29901</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54507</v>
+        <v>53143</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03963433785984323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03103492177186937</v>
+        <v>0.02881751134723477</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05253145444480757</v>
+        <v>0.05121753919260338</v>
       </c>
     </row>
     <row r="5">
@@ -6082,19 +6082,19 @@
         <v>535067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>526694</v>
+        <v>525845</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>541597</v>
+        <v>540940</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9717575349851117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9565514424707966</v>
+        <v>0.95500797905472</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.983616924563216</v>
+        <v>0.9824225701068173</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>648</v>
@@ -6103,19 +6103,19 @@
         <v>461410</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>451652</v>
+        <v>451493</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>468912</v>
+        <v>468701</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9474852129105996</v>
+        <v>0.9474852129105995</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9274470665808217</v>
+        <v>0.9271204597406872</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9628892865015591</v>
+        <v>0.9624563279243475</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1183</v>
@@ -6124,19 +6124,19 @@
         <v>996477</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>983095</v>
+        <v>984459</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1005400</v>
+        <v>1007701</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9603656621401567</v>
+        <v>0.9603656621401568</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.947468545555193</v>
+        <v>0.9487824608073963</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9689650782281306</v>
+        <v>0.9711824886527652</v>
       </c>
     </row>
     <row r="6">
@@ -6228,19 +6228,19 @@
         <v>11851</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6824</v>
+        <v>6726</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19639</v>
+        <v>18952</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02458141567856684</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01415483313184205</v>
+        <v>0.013950164798368</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04073448697993913</v>
+        <v>0.03930920090709414</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -6249,19 +6249,19 @@
         <v>24032</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16998</v>
+        <v>17152</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33424</v>
+        <v>34228</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05688175602770674</v>
+        <v>0.05688175602770675</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04023372762182076</v>
+        <v>0.04059620006663983</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07911247261891798</v>
+        <v>0.08101541035860689</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -6270,19 +6270,19 @@
         <v>35883</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26783</v>
+        <v>26720</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47094</v>
+        <v>47505</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03966709377266101</v>
+        <v>0.03966709377266099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02960760074217413</v>
+        <v>0.02953754457323249</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05205969629165533</v>
+        <v>0.05251476550864598</v>
       </c>
     </row>
     <row r="8">
@@ -6299,19 +6299,19 @@
         <v>470265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462477</v>
+        <v>463164</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475292</v>
+        <v>475390</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9754185843214331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9592655130200597</v>
+        <v>0.9606907990929054</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9858451668681579</v>
+        <v>0.986049835201632</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>554</v>
@@ -6320,19 +6320,19 @@
         <v>398460</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>389068</v>
+        <v>388264</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>405494</v>
+        <v>405340</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9431182439722933</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9208875273810826</v>
+        <v>0.9189845896413931</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9597662723781791</v>
+        <v>0.9594037999333601</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1018</v>
@@ -6341,19 +6341,19 @@
         <v>868725</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>857514</v>
+        <v>857103</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>877825</v>
+        <v>877888</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.960332906227339</v>
+        <v>0.9603329062273389</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9479403037083446</v>
+        <v>0.9474852344913531</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9703923992578257</v>
+        <v>0.9704624554267676</v>
       </c>
     </row>
     <row r="9">
@@ -6445,19 +6445,19 @@
         <v>22913</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15292</v>
+        <v>16010</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33736</v>
+        <v>33728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04867347766261847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03248584415034871</v>
+        <v>0.03401001324567345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07166572198402799</v>
+        <v>0.07164919925415288</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -6466,19 +6466,19 @@
         <v>28471</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21694</v>
+        <v>21370</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36876</v>
+        <v>37182</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1518467624550456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1157038215129365</v>
+        <v>0.1139744857378679</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1966758581749656</v>
+        <v>0.1983083942317498</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -6487,19 +6487,19 @@
         <v>51384</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40281</v>
+        <v>40957</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65123</v>
+        <v>64885</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07806198282870609</v>
+        <v>0.07806198282870611</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06119560434363271</v>
+        <v>0.06222158787468317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09893534450553973</v>
+        <v>0.09857271180091413</v>
       </c>
     </row>
     <row r="11">
@@ -6516,19 +6516,19 @@
         <v>447830</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>437007</v>
+        <v>437015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>455451</v>
+        <v>454733</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9513265223373816</v>
+        <v>0.9513265223373815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9283342780159722</v>
+        <v>0.9283508007458472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9675141558496512</v>
+        <v>0.9659899867543267</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>245</v>
@@ -6537,19 +6537,19 @@
         <v>159026</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150621</v>
+        <v>150315</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165803</v>
+        <v>166127</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8481532375449543</v>
+        <v>0.8481532375449544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8033241418250342</v>
+        <v>0.8016916057682497</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8842961784870631</v>
+        <v>0.8860255142621322</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>702</v>
@@ -6558,19 +6558,19 @@
         <v>606857</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>593118</v>
+        <v>593356</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>617960</v>
+        <v>617284</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9219380171712939</v>
+        <v>0.9219380171712938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9010646554944604</v>
+        <v>0.9014272881990857</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9388043956563672</v>
+        <v>0.9377784121253167</v>
       </c>
     </row>
     <row r="12">
@@ -6662,19 +6662,19 @@
         <v>66386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52779</v>
+        <v>54200</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81443</v>
+        <v>82910</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05871216182073901</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04667753888657714</v>
+        <v>0.0479341354115198</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07202851139663916</v>
+        <v>0.07332551115785602</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -6683,19 +6683,19 @@
         <v>58144</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47195</v>
+        <v>47792</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70774</v>
+        <v>70829</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06774335399892323</v>
+        <v>0.06774335399892324</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05498653856582364</v>
+        <v>0.05568280473965661</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08245835832610103</v>
+        <v>0.08252295482490743</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -6704,19 +6704,19 @@
         <v>124530</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108110</v>
+        <v>107151</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143067</v>
+        <v>144109</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06260930345321396</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05435402976680462</v>
+        <v>0.05387186724207127</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07192879518777627</v>
+        <v>0.072452707586712</v>
       </c>
     </row>
     <row r="14">
@@ -6733,19 +6733,19 @@
         <v>1064324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1049267</v>
+        <v>1047800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1077931</v>
+        <v>1076510</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.941287838179261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9279714886033609</v>
+        <v>0.9266744888421441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.953322461113423</v>
+        <v>0.9520658645884802</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1128</v>
@@ -6754,19 +6754,19 @@
         <v>800152</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>787522</v>
+        <v>787467</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>811101</v>
+        <v>810504</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9322566460010767</v>
+        <v>0.9322566460010768</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.917541641673899</v>
+        <v>0.9174770451750931</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9450134614341764</v>
+        <v>0.9443171952603435</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2158</v>
@@ -6775,19 +6775,19 @@
         <v>1864476</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1845939</v>
+        <v>1844897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1880896</v>
+        <v>1881855</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9373906965467861</v>
+        <v>0.9373906965467862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9280712048122235</v>
+        <v>0.927547292413288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9456459702331954</v>
+        <v>0.9461281327579293</v>
       </c>
     </row>
     <row r="15">
@@ -6879,19 +6879,19 @@
         <v>25651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18081</v>
+        <v>17677</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36254</v>
+        <v>35879</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04535374324427294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03196949756060705</v>
+        <v>0.03125523188468469</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06410066218785263</v>
+        <v>0.06343782853400316</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>208</v>
@@ -6900,19 +6900,19 @@
         <v>112319</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>98008</v>
+        <v>99184</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>127686</v>
+        <v>127360</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1356379869098291</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1183563804727593</v>
+        <v>0.1197768381815049</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1541961128776727</v>
+        <v>0.1538023199643223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>242</v>
@@ -6921,19 +6921,19 @@
         <v>137970</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121173</v>
+        <v>122475</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157850</v>
+        <v>157596</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09899852734544078</v>
+        <v>0.09899852734544075</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08694637696729775</v>
+        <v>0.08788040715738336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1132632598599969</v>
+        <v>0.1130810919528922</v>
       </c>
     </row>
     <row r="17">
@@ -6950,19 +6950,19 @@
         <v>539927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>529324</v>
+        <v>529699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>547497</v>
+        <v>547901</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9546462567557272</v>
+        <v>0.954646256755727</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9358993378121475</v>
+        <v>0.9365621714659966</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.968030502439393</v>
+        <v>0.9687447681153152</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1078</v>
@@ -6971,19 +6971,19 @@
         <v>715758</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>700391</v>
+        <v>700717</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>730069</v>
+        <v>728893</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8643620130901709</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8458038871223275</v>
+        <v>0.8461976800356774</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8816436195272406</v>
+        <v>0.8802231618184947</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1589</v>
@@ -6992,19 +6992,19 @@
         <v>1255685</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1235805</v>
+        <v>1236059</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1272482</v>
+        <v>1271180</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9010014726545593</v>
+        <v>0.9010014726545592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8867367401400025</v>
+        <v>0.8869189080471077</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9130536230327019</v>
+        <v>0.9121195928426167</v>
       </c>
     </row>
     <row r="18">
@@ -7096,19 +7096,19 @@
         <v>4416</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17410</v>
+        <v>19176</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0186136278856408</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002182914442317148</v>
+        <v>0.002157897194795021</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07338762072273787</v>
+        <v>0.08083391416057779</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>130</v>
@@ -7117,19 +7117,19 @@
         <v>75102</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62711</v>
+        <v>61490</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88796</v>
+        <v>87332</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0890564594724878</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07436268969254405</v>
+        <v>0.07291503503600111</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1052947186982172</v>
+        <v>0.1035587041819909</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -7138,19 +7138,19 @@
         <v>79518</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66059</v>
+        <v>65327</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95324</v>
+        <v>96894</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07359103845942541</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06113501026977945</v>
+        <v>0.06045810284675</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08821903199379144</v>
+        <v>0.08967230619588175</v>
       </c>
     </row>
     <row r="20">
@@ -7167,19 +7167,19 @@
         <v>232812</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219818</v>
+        <v>218052</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236710</v>
+        <v>236716</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9813863721143592</v>
+        <v>0.9813863721143591</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9266123792772624</v>
+        <v>0.9191660858394221</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9978170855576828</v>
+        <v>0.997842102805205</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1027</v>
@@ -7188,19 +7188,19 @@
         <v>768209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>754515</v>
+        <v>755979</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>780600</v>
+        <v>781821</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.910943540527512</v>
+        <v>0.9109435405275119</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8947052813017827</v>
+        <v>0.8964412958180089</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9256373103074559</v>
+        <v>0.9270849649639988</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1136</v>
@@ -7209,19 +7209,19 @@
         <v>1001021</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>985215</v>
+        <v>983645</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1014480</v>
+        <v>1015212</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9264089615405745</v>
+        <v>0.9264089615405744</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9117809680062082</v>
+        <v>0.9103276938041186</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9388649897302204</v>
+        <v>0.9395418971532502</v>
       </c>
     </row>
     <row r="21">
@@ -7313,19 +7313,19 @@
         <v>146768</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>125580</v>
+        <v>126121</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>171240</v>
+        <v>171626</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04270238019273682</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03653769867456411</v>
+        <v>0.03669514026914991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04982264443292245</v>
+        <v>0.04993498647126374</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>551</v>
@@ -7334,19 +7334,19 @@
         <v>323642</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>294635</v>
+        <v>296060</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>352203</v>
+        <v>349817</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08923965465116948</v>
+        <v>0.08923965465116947</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08124159680834687</v>
+        <v>0.08163427141432308</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09711503797216306</v>
+        <v>0.09645715430316174</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>740</v>
@@ -7355,19 +7355,19 @@
         <v>470409</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>436533</v>
+        <v>436361</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>506481</v>
+        <v>506765</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06659579813862762</v>
+        <v>0.06659579813862763</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06179996553738883</v>
+        <v>0.06177554636919443</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07170243211082966</v>
+        <v>0.07174258733885758</v>
       </c>
     </row>
     <row r="23">
@@ -7384,19 +7384,19 @@
         <v>3290225</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3265753</v>
+        <v>3265367</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3311413</v>
+        <v>3310872</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.957297619807263</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9501773555670772</v>
+        <v>0.9500650135287356</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9634623013254359</v>
+        <v>0.9633048597308502</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4680</v>
@@ -7405,19 +7405,19 @@
         <v>3303015</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3274454</v>
+        <v>3276840</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3332022</v>
+        <v>3330597</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9107603453488305</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9028849620278375</v>
+        <v>0.9035428456968385</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9187584031916535</v>
+        <v>0.9183657285856769</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7786</v>
@@ -7426,19 +7426,19 @@
         <v>6593241</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6557169</v>
+        <v>6556885</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6627117</v>
+        <v>6627289</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9334042018613724</v>
+        <v>0.9334042018613723</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9282975678891704</v>
+        <v>0.9282574126611424</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.938200034462611</v>
+        <v>0.9382244536308058</v>
       </c>
     </row>
     <row r="24">
